--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/112.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/112.xlsx
@@ -479,13 +479,13 @@
         <v>0.03308701648830602</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.30341609582809</v>
+        <v>-1.374580299827071</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1182794518286195</v>
+        <v>0.1318827198916158</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09516835059762568</v>
+        <v>0.1089439043353493</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.05372627159319555</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.30804444827627</v>
+        <v>-1.412148797254242</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0328184569234606</v>
+        <v>0.05784514124972661</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1245839394851632</v>
+        <v>0.1456436731484303</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.06638866287715381</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.33098764397681</v>
+        <v>-1.464945596269592</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.01582158517707179</v>
+        <v>0.009044493859194258</v>
       </c>
       <c r="G4" t="n">
-        <v>0.07625342757990348</v>
+        <v>0.08713516600144602</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.06298873162990816</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.411163264792879</v>
+        <v>-1.556842483159476</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.03990215834042896</v>
+        <v>-0.02883353376325012</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1126524264862574</v>
+        <v>0.1293203354920711</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.04327506213650891</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.468000016875773</v>
+        <v>-1.617549822731369</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.01274234375334535</v>
+        <v>-0.01003979473707334</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1137489226025298</v>
+        <v>0.1362030021926147</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.01077714678793319</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.255396574166193</v>
+        <v>-1.385919033301068</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1471723434996117</v>
+        <v>0.1390661564988866</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04959294943991064</v>
+        <v>0.0704322158414505</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.02552511394558211</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.9400320267222781</v>
+        <v>-1.058627353002519</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2180328574956836</v>
+        <v>0.1611829649799716</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01333265510219311</v>
+        <v>0.03949963698745881</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.04489539586752465</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.553214185757382</v>
+        <v>-0.6495554590359925</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3121271167623856</v>
+        <v>0.251927873926129</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.06059249983669613</v>
+        <v>-0.02919708573788638</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.02168790037717616</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.1324808876887677</v>
+        <v>-0.2120111672486555</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3052853314083874</v>
+        <v>0.2276399739338628</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.04176955984870119</v>
+        <v>-0.0002414119989850662</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.06807319162333256</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5477876389235951</v>
+        <v>0.4853267815945209</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1379609000940687</v>
+        <v>0.01647759869001044</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1068307628276837</v>
+        <v>-0.07120266931332965</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.2372449153226891</v>
       </c>
       <c r="E12" t="n">
-        <v>1.343008671829381</v>
+        <v>1.333608882220111</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2110343950758375</v>
+        <v>-0.3456420687690742</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01531832050582894</v>
+        <v>0.06780558932590575</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.4800114107035308</v>
       </c>
       <c r="E13" t="n">
-        <v>1.978661048879756</v>
+        <v>1.965468054330305</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.6609701150107168</v>
+        <v>-0.7815686272716843</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1477125612932479</v>
+        <v>0.1974155184039618</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.7734637454125159</v>
       </c>
       <c r="E14" t="n">
-        <v>2.678202210292114</v>
+        <v>2.685714157719839</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.321827302254448</v>
+        <v>-1.475024308241135</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2065992208957776</v>
+        <v>0.2498692061179478</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>1.082412985919903</v>
       </c>
       <c r="E15" t="n">
-        <v>3.360631608079022</v>
+        <v>3.38820023613156</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.88874572535316</v>
+        <v>-2.022825591661533</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3916281953604552</v>
+        <v>0.4513704431442573</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>1.386265789433441</v>
       </c>
       <c r="E16" t="n">
-        <v>3.971855920520403</v>
+        <v>4.036817840229204</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.546901093604665</v>
+        <v>-2.676583295063221</v>
       </c>
       <c r="G16" t="n">
-        <v>0.632352164300936</v>
+        <v>0.7129789399770962</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.675936983147168</v>
       </c>
       <c r="E17" t="n">
-        <v>4.560445107408427</v>
+        <v>4.656765940013765</v>
       </c>
       <c r="F17" t="n">
-        <v>-3.131799278918872</v>
+        <v>-3.222391612839529</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8263385338033384</v>
+        <v>0.9093627084447707</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.946597339559801</v>
       </c>
       <c r="E18" t="n">
-        <v>5.120862666382367</v>
+        <v>5.217555811250887</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.78332456878956</v>
+        <v>-3.847174661877134</v>
       </c>
       <c r="G18" t="n">
-        <v>1.106569944035718</v>
+        <v>1.196900199324057</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>2.193494577021012</v>
       </c>
       <c r="E19" t="n">
-        <v>5.622665134698686</v>
+        <v>5.722317797047478</v>
       </c>
       <c r="F19" t="n">
-        <v>-4.365436982346313</v>
+        <v>-4.373089094390766</v>
       </c>
       <c r="G19" t="n">
-        <v>1.340100256032291</v>
+        <v>1.429532581744722</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>2.403936096434009</v>
       </c>
       <c r="E20" t="n">
-        <v>5.950813863226599</v>
+        <v>6.037552400211303</v>
       </c>
       <c r="F20" t="n">
-        <v>-4.83755959307064</v>
+        <v>-4.817779591559055</v>
       </c>
       <c r="G20" t="n">
-        <v>1.55840664658496</v>
+        <v>1.647593684218118</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>2.569232024730097</v>
       </c>
       <c r="E21" t="n">
-        <v>6.350539989363218</v>
+        <v>6.448791005544738</v>
       </c>
       <c r="F21" t="n">
-        <v>-5.200988193643225</v>
+        <v>-5.166347092638325</v>
       </c>
       <c r="G21" t="n">
-        <v>1.759643614906815</v>
+        <v>1.852940687915881</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.685894268314172</v>
       </c>
       <c r="E22" t="n">
-        <v>6.702151690712033</v>
+        <v>6.790118128141192</v>
       </c>
       <c r="F22" t="n">
-        <v>-5.374523669536269</v>
+        <v>-5.332577217908508</v>
       </c>
       <c r="G22" t="n">
-        <v>1.836818836896067</v>
+        <v>1.928936191047679</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.755737897006025</v>
       </c>
       <c r="E23" t="n">
-        <v>6.797284044171372</v>
+        <v>6.850105664004267</v>
       </c>
       <c r="F23" t="n">
-        <v>-5.62831068874611</v>
+        <v>-5.590050128523847</v>
       </c>
       <c r="G23" t="n">
-        <v>1.976421335108302</v>
+        <v>2.059609035135916</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.785614343722096</v>
       </c>
       <c r="E24" t="n">
-        <v>7.014380054856677</v>
+        <v>7.070743751358116</v>
       </c>
       <c r="F24" t="n">
-        <v>-5.582608993428532</v>
+        <v>-5.551672034430267</v>
       </c>
       <c r="G24" t="n">
-        <v>2.045926924476011</v>
+        <v>2.13248149540126</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.778914674320793</v>
       </c>
       <c r="E25" t="n">
-        <v>7.022502302386401</v>
+        <v>7.045449878231214</v>
       </c>
       <c r="F25" t="n">
-        <v>-5.574710133256715</v>
+        <v>-5.58214834825585</v>
       </c>
       <c r="G25" t="n">
-        <v>2.02423352994129</v>
+        <v>2.104533254845086</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.742010356338497</v>
       </c>
       <c r="E26" t="n">
-        <v>6.99319183696141</v>
+        <v>7.010118174479314</v>
       </c>
       <c r="F26" t="n">
-        <v>-5.446591643303522</v>
+        <v>-5.45373711866043</v>
       </c>
       <c r="G26" t="n">
-        <v>1.949105295375491</v>
+        <v>2.024510939078562</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.678835158257993</v>
       </c>
       <c r="E27" t="n">
-        <v>6.875387856746442</v>
+        <v>6.882396087582803</v>
       </c>
       <c r="F27" t="n">
-        <v>-5.380777055509631</v>
+        <v>-5.38192392328504</v>
       </c>
       <c r="G27" t="n">
-        <v>1.934564676438132</v>
+        <v>2.018165570075473</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.591801064990777</v>
       </c>
       <c r="E28" t="n">
-        <v>6.818610966635275</v>
+        <v>6.842047658590541</v>
       </c>
       <c r="F28" t="n">
-        <v>-5.206146543548406</v>
+        <v>-5.209087080403496</v>
       </c>
       <c r="G28" t="n">
-        <v>1.866218365254605</v>
+        <v>1.941926238912493</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.486035149571499</v>
       </c>
       <c r="E29" t="n">
-        <v>6.637518281823687</v>
+        <v>6.642739413796777</v>
       </c>
       <c r="F29" t="n">
-        <v>-5.103021886839433</v>
+        <v>-5.119511669978156</v>
       </c>
       <c r="G29" t="n">
-        <v>1.830562530826523</v>
+        <v>1.895041174617233</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.363074283655153</v>
       </c>
       <c r="E30" t="n">
-        <v>6.560178074400162</v>
+        <v>6.570858326185159</v>
       </c>
       <c r="F30" t="n">
-        <v>-5.072951466383123</v>
+        <v>-5.116247002446884</v>
       </c>
       <c r="G30" t="n">
-        <v>1.805341660104167</v>
+        <v>1.8834031312846</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.230321271707559</v>
       </c>
       <c r="E31" t="n">
-        <v>6.348909115645673</v>
+        <v>6.34835575741922</v>
       </c>
       <c r="F31" t="n">
-        <v>-4.912987867519121</v>
+        <v>-4.969348643924378</v>
       </c>
       <c r="G31" t="n">
-        <v>1.678165631193655</v>
+        <v>1.753880805091999</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.091789979514832</v>
       </c>
       <c r="E32" t="n">
-        <v>6.078227879975929</v>
+        <v>6.069836983597476</v>
       </c>
       <c r="F32" t="n">
-        <v>-4.710769016856129</v>
+        <v>-4.760287277883343</v>
       </c>
       <c r="G32" t="n">
-        <v>1.563014558359868</v>
+        <v>1.635051871117212</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.950865272050469</v>
       </c>
       <c r="E33" t="n">
-        <v>5.842684161661992</v>
+        <v>5.825785565057815</v>
       </c>
       <c r="F33" t="n">
-        <v>-4.521976768437135</v>
+        <v>-4.593043149214025</v>
       </c>
       <c r="G33" t="n">
-        <v>1.541103616659601</v>
+        <v>1.606967846088583</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.811153839864848</v>
       </c>
       <c r="E34" t="n">
-        <v>5.488343630431268</v>
+        <v>5.465587320886366</v>
       </c>
       <c r="F34" t="n">
-        <v>-4.397147766832759</v>
+        <v>-4.474195964638102</v>
       </c>
       <c r="G34" t="n">
-        <v>1.462659612879349</v>
+        <v>1.520420575403788</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.671744006594638</v>
       </c>
       <c r="E35" t="n">
-        <v>5.217514929904342</v>
+        <v>5.173752908475534</v>
       </c>
       <c r="F35" t="n">
-        <v>-4.29199729339765</v>
+        <v>-4.378916876345627</v>
       </c>
       <c r="G35" t="n">
-        <v>1.443902375055445</v>
+        <v>1.519198515151698</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.535699482914894</v>
       </c>
       <c r="E36" t="n">
-        <v>4.899161664018336</v>
+        <v>4.849842699555531</v>
       </c>
       <c r="F36" t="n">
-        <v>-4.18563644009518</v>
+        <v>-4.260653711006069</v>
       </c>
       <c r="G36" t="n">
-        <v>1.347820990337017</v>
+        <v>1.417075451433089</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.401577623836769</v>
       </c>
       <c r="E37" t="n">
-        <v>4.522794847288164</v>
+        <v>4.465651485106179</v>
       </c>
       <c r="F37" t="n">
-        <v>-4.136122559212238</v>
+        <v>-4.21088870185149</v>
       </c>
       <c r="G37" t="n">
-        <v>1.238158238276955</v>
+        <v>1.28956507150976</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.269288545425999</v>
       </c>
       <c r="E38" t="n">
-        <v>4.244505301016694</v>
+        <v>4.192055993446981</v>
       </c>
       <c r="F38" t="n">
-        <v>-4.015597049355816</v>
+        <v>-4.073569718853436</v>
       </c>
       <c r="G38" t="n">
-        <v>1.201518331435601</v>
+        <v>1.244653992233408</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.139952970766244</v>
       </c>
       <c r="E39" t="n">
-        <v>3.850336117914072</v>
+        <v>3.769596918534912</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.876224508717899</v>
+        <v>-3.935090727647156</v>
       </c>
       <c r="G39" t="n">
-        <v>1.123259753762895</v>
+        <v>1.168659949149701</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.013401117482635</v>
       </c>
       <c r="E40" t="n">
-        <v>3.527065410057886</v>
+        <v>3.438468231853455</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.787958031406059</v>
+        <v>-3.849400505191724</v>
       </c>
       <c r="G40" t="n">
-        <v>1.040475027008372</v>
+        <v>1.089447960073631</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.8943192103773997</v>
       </c>
       <c r="E41" t="n">
-        <v>3.305901705391309</v>
+        <v>3.199448139035065</v>
       </c>
       <c r="F41" t="n">
-        <v>-3.760321511117294</v>
+        <v>-3.814536746852961</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9458288695633064</v>
+        <v>0.9786449104545702</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.7836068955451558</v>
       </c>
       <c r="E42" t="n">
-        <v>2.969565027169581</v>
+        <v>2.838457088750252</v>
       </c>
       <c r="F42" t="n">
-        <v>-3.66342833966032</v>
+        <v>-3.68045980064077</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8867903649593222</v>
+        <v>0.9161738327888598</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.6832913882729205</v>
       </c>
       <c r="E43" t="n">
-        <v>2.820857669062439</v>
+        <v>2.681220129696022</v>
       </c>
       <c r="F43" t="n">
-        <v>-3.597662663477474</v>
+        <v>-3.611756507699015</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8525201161695132</v>
+        <v>0.8652239946085098</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.5935951671291282</v>
       </c>
       <c r="E44" t="n">
-        <v>2.592079813601774</v>
+        <v>2.454740389930447</v>
       </c>
       <c r="F44" t="n">
-        <v>-3.590182837107748</v>
+        <v>-3.604865810733972</v>
       </c>
       <c r="G44" t="n">
-        <v>0.7572096368430843</v>
+        <v>0.7600859315821744</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.5118381003540611</v>
       </c>
       <c r="E45" t="n">
-        <v>2.38541438647792</v>
+        <v>2.241982182123231</v>
       </c>
       <c r="F45" t="n">
-        <v>-3.464319391430964</v>
+        <v>-3.47161598176528</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6692417393658352</v>
+        <v>0.6859067282754671</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.4381694471500843</v>
       </c>
       <c r="E46" t="n">
-        <v>2.160215108888071</v>
+        <v>1.992610348340298</v>
       </c>
       <c r="F46" t="n">
-        <v>-3.394010775613256</v>
+        <v>-3.410834179740751</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6901043665368296</v>
+        <v>0.7075344206460976</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.3704574858624957</v>
       </c>
       <c r="E47" t="n">
-        <v>1.847535589883337</v>
+        <v>1.661069928097205</v>
       </c>
       <c r="F47" t="n">
-        <v>-3.35233808300254</v>
+        <v>-3.371591737177352</v>
       </c>
       <c r="G47" t="n">
-        <v>0.578412147630405</v>
+        <v>0.5794254210054957</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.307961399020759</v>
       </c>
       <c r="E48" t="n">
-        <v>1.662699341766659</v>
+        <v>1.490356725163887</v>
       </c>
       <c r="F48" t="n">
-        <v>-3.24459091403775</v>
+        <v>-3.256127484028065</v>
       </c>
       <c r="G48" t="n">
-        <v>0.4863210743444297</v>
+        <v>0.502739315126698</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.2506931291350979</v>
       </c>
       <c r="E49" t="n">
-        <v>1.4785989578878</v>
+        <v>1.280220763727944</v>
       </c>
       <c r="F49" t="n">
-        <v>-3.182654213973312</v>
+        <v>-3.208029849793306</v>
       </c>
       <c r="G49" t="n">
-        <v>0.3994044114926349</v>
+        <v>0.4017258879571797</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.1984125760083417</v>
       </c>
       <c r="E50" t="n">
-        <v>1.348445890919926</v>
+        <v>1.16422432304952</v>
       </c>
       <c r="F50" t="n">
-        <v>-3.127468776281236</v>
+        <v>-3.137120424186188</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2946313604890267</v>
+        <v>0.2985647300459347</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.1532058881736692</v>
       </c>
       <c r="E51" t="n">
-        <v>1.220125184306142</v>
+        <v>1.050363932728096</v>
       </c>
       <c r="F51" t="n">
-        <v>-3.041093061247123</v>
+        <v>-3.058828995431436</v>
       </c>
       <c r="G51" t="n">
-        <v>0.2822954141689391</v>
+        <v>0.2938356342794815</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.1148261016330103</v>
       </c>
       <c r="E52" t="n">
-        <v>1.072489501497727</v>
+        <v>0.9055622032641354</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.914029456039612</v>
+        <v>-2.919633850636565</v>
       </c>
       <c r="G52" t="n">
-        <v>0.2291598839964988</v>
+        <v>0.2343401346230428</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.08331948922724269</v>
       </c>
       <c r="E53" t="n">
-        <v>0.8985860934857736</v>
+        <v>0.7414338172208158</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.822396107830136</v>
+        <v>-2.834156065178361</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1474205516750662</v>
+        <v>0.1624794876846985</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.05796617285020598</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9027501506410451</v>
+        <v>0.7903819294685299</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.760555770939698</v>
+        <v>-2.762540706319289</v>
       </c>
       <c r="G54" t="n">
-        <v>0.09459455169789856</v>
+        <v>0.09652327522598896</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.03723534498842211</v>
       </c>
       <c r="E55" t="n">
-        <v>0.7041398088347349</v>
+        <v>0.5795553652855865</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.790806507335236</v>
+        <v>-2.792290646219644</v>
       </c>
       <c r="G55" t="n">
-        <v>0.07345451538963151</v>
+        <v>0.08099420373108403</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.01993260155072609</v>
       </c>
       <c r="E56" t="n">
-        <v>0.5691393822050439</v>
+        <v>0.4505352956362575</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.68948427999449</v>
+        <v>-2.682331504397129</v>
       </c>
       <c r="G56" t="n">
-        <v>0.06380797765299774</v>
+        <v>0.07706521431844872</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.004462666877271035</v>
       </c>
       <c r="E57" t="n">
-        <v>0.4930752568129734</v>
+        <v>0.3745573130815507</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.677136653289675</v>
+        <v>-2.674055951817858</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02602631320455333</v>
+        <v>0.03662626234455049</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.01013166750290889</v>
       </c>
       <c r="E58" t="n">
-        <v>0.4720929056985245</v>
+        <v>0.360238621454009</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.694406832132989</v>
+        <v>-2.684938420263446</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.03600090984152092</v>
+        <v>-0.02971248271397715</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.02400987686702802</v>
       </c>
       <c r="E59" t="n">
-        <v>0.403209296817543</v>
+        <v>0.2690775988019426</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.665938814456451</v>
+        <v>-2.649281855811319</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.05552759300933386</v>
+        <v>-0.05069337378033516</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.03697579708667674</v>
       </c>
       <c r="E60" t="n">
-        <v>0.4120192269980861</v>
+        <v>0.3037552010091151</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.664132004943951</v>
+        <v>-2.643558467294957</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1192105105904986</v>
+        <v>-0.1100005272330465</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.04741993497015214</v>
       </c>
       <c r="E61" t="n">
-        <v>0.259444201498127</v>
+        <v>0.1496427448694292</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.720078127691391</v>
+        <v>-2.711547066696212</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1538881127976711</v>
+        <v>-0.1536647254397621</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.05532375836002847</v>
       </c>
       <c r="E62" t="n">
-        <v>0.2265113567595904</v>
+        <v>0.1093819187626219</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.69056033543749</v>
+        <v>-2.655201620795908</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1957608319968417</v>
+        <v>-0.1957798126220235</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.06032614229885806</v>
       </c>
       <c r="E63" t="n">
-        <v>0.1416606619564314</v>
+        <v>0.01889835842473707</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.816720170876729</v>
+        <v>-2.81891535318141</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2517624365717357</v>
+        <v>-0.2468143335916461</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.06284299909735513</v>
       </c>
       <c r="E64" t="n">
-        <v>0.07530439632081283</v>
+        <v>-0.05224102475669837</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.814551269437684</v>
+        <v>-2.819121949986274</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2648941091013686</v>
+        <v>-0.2705079940109125</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.06349235393331722</v>
       </c>
       <c r="E65" t="n">
-        <v>0.01516939560055625</v>
+        <v>-0.1093230649188649</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.784445077803146</v>
+        <v>-2.787943353028964</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2999849049182682</v>
+        <v>-0.3066909057998119</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.06379915970008591</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.03991237867706533</v>
+        <v>-0.1761450858954833</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.890377406990936</v>
+        <v>-2.901714680416842</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3018508463784496</v>
+        <v>-0.3058031965605394</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.06481511281208059</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.08601777729178021</v>
+        <v>-0.237109393931376</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.891465872842709</v>
+        <v>-2.908119911391659</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3107629799253562</v>
+        <v>-0.3261007851203521</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.06772691383175665</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.1036609984223209</v>
+        <v>-0.2395155531851935</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.985458658767092</v>
+        <v>-2.999171430436907</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3859977980017906</v>
+        <v>-0.4005121360735139</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.07260567657099387</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.1342417056864036</v>
+        <v>-0.264134884094096</v>
       </c>
       <c r="F69" t="n">
-        <v>-3.008325201942859</v>
+        <v>-3.041709931565532</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3450872504945288</v>
+        <v>-0.3574392573436164</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.0791994752975308</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.2456200142532828</v>
+        <v>-0.3855831443439725</v>
       </c>
       <c r="F70" t="n">
-        <v>-3.124637743032964</v>
+        <v>-3.146998379545231</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4151301375596919</v>
+        <v>-0.4287027446127791</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.08708187236929466</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.2830906884583637</v>
+        <v>-0.4335924456692323</v>
       </c>
       <c r="F71" t="n">
-        <v>-3.225101462096255</v>
+        <v>-3.260796717822791</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.493518659512489</v>
+        <v>-0.5146324149551197</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.09566665566028131</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.3043168676039943</v>
+        <v>-0.4605449334274069</v>
       </c>
       <c r="F72" t="n">
-        <v>-3.347370999397268</v>
+        <v>-3.391890785785256</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.5062298381919401</v>
+        <v>-0.5211661301619361</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.1046647500552985</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.317803331819718</v>
+        <v>-0.4578555248439531</v>
       </c>
       <c r="F73" t="n">
-        <v>-3.297257768773009</v>
+        <v>-3.356150268567902</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5507102032814736</v>
+        <v>-0.5759427543885578</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.1134702654614447</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.3763848413712477</v>
+        <v>-0.5239650423522081</v>
       </c>
       <c r="F74" t="n">
-        <v>-3.367001345979535</v>
+        <v>-3.424328674220975</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.6095107200466396</v>
+        <v>-0.6420099305021764</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.1212284421778969</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.3194035445273539</v>
+        <v>-0.4540053780282269</v>
       </c>
       <c r="F75" t="n">
-        <v>-3.377931265988078</v>
+        <v>-3.432652408387245</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.6409616159729039</v>
+        <v>-0.6693902123509872</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.1276203454154827</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.3774711171508838</v>
+        <v>-0.5058108043898493</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.27031404130338</v>
+        <v>-3.31801819257764</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.6602736720713532</v>
+        <v>-0.6836621824396197</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.132019020116715</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.3630181010989786</v>
+        <v>-0.4848094726502186</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.272914386953288</v>
+        <v>-3.325725786449547</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.6123592738720025</v>
+        <v>-0.6213794509776365</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.1346481697402832</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.2349894041033766</v>
+        <v>-0.3392324576499849</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.190134040343038</v>
+        <v>-3.244828901876569</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.6487889337882654</v>
+        <v>-0.673310441475077</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.1353897333957889</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.169033191644667</v>
+        <v>-0.27628832440282</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.130710083043053</v>
+        <v>-3.190431160129537</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.6023769250744597</v>
+        <v>-0.6216130586721819</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.1349982310506397</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.06894105482051208</v>
+        <v>-0.1630966361070322</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.053439227903847</v>
+        <v>-3.113667671701922</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.6355258569304508</v>
+        <v>-0.6427326543071762</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.1336988639880543</v>
       </c>
       <c r="E81" t="n">
-        <v>0.02123151527400917</v>
+        <v>-0.08456648948941697</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.936676992001742</v>
+        <v>-2.998245029923226</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.5707084819826501</v>
+        <v>-0.5864828415568276</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.1312604873692519</v>
       </c>
       <c r="E82" t="n">
-        <v>0.1475928373497934</v>
+        <v>0.07443712775481306</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.781076016833375</v>
+        <v>-2.842114057297858</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.5636403891745611</v>
+        <v>-0.57106181362065</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.1274165744393845</v>
       </c>
       <c r="E83" t="n">
-        <v>0.4324672005112624</v>
+        <v>0.3670570460385527</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.695805558204079</v>
+        <v>-2.761691688354425</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.5487610390801105</v>
+        <v>-0.5641514060063791</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1216362873464897</v>
       </c>
       <c r="E84" t="n">
-        <v>0.7036506927242805</v>
+        <v>0.6557742557752934</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.530221504214124</v>
+        <v>-2.606898849804376</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.5357636909748412</v>
+        <v>-0.5471783469495655</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1132790977392345</v>
       </c>
       <c r="E85" t="n">
-        <v>0.9072164377511349</v>
+        <v>0.8506760754306956</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.304543330850457</v>
+        <v>-2.377442071981438</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.5372135187291136</v>
+        <v>-0.5505320774143827</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1035036790726049</v>
       </c>
       <c r="E86" t="n">
-        <v>1.242804111302227</v>
+        <v>1.19883330299642</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.207054459772392</v>
+        <v>-2.290988974398506</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.4673341570501324</v>
+        <v>-0.4736474049952216</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.09289966654132094</v>
       </c>
       <c r="E87" t="n">
-        <v>1.54715989614069</v>
+        <v>1.500409156269794</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.036433239868802</v>
+        <v>-2.117784929422098</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.4420154631056846</v>
+        <v>-0.4611245725194977</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.08349588623236558</v>
       </c>
       <c r="E88" t="n">
-        <v>1.730301028423823</v>
+        <v>1.665950868865113</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.7741122395676</v>
+        <v>-1.848763768431716</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.4409364875665031</v>
+        <v>-0.4605536937159524</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.07595647448503262</v>
       </c>
       <c r="E89" t="n">
-        <v>1.960480530051761</v>
+        <v>1.892229121994143</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.625642869299276</v>
+        <v>-1.692254643350803</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.3412414838230753</v>
+        <v>-0.3520385394553451</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.07176370791037318</v>
       </c>
       <c r="E90" t="n">
-        <v>2.093530332431998</v>
+        <v>2.046804413378647</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.429946783482419</v>
+        <v>-1.48311443471286</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.3112491759396288</v>
+        <v>-0.3265154387781702</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.07367649278838566</v>
       </c>
       <c r="E91" t="n">
-        <v>2.169179804166251</v>
+        <v>2.131446321304806</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.231329141435654</v>
+        <v>-1.278969050593914</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.2981364840351778</v>
+        <v>-0.3156395405489913</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.08414674774502717</v>
       </c>
       <c r="E92" t="n">
-        <v>2.100198372063178</v>
+        <v>2.07434822061364</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.076260353796423</v>
+        <v>-1.118362300545867</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.2840879013044543</v>
+        <v>-0.3148467344356279</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.1074069362643944</v>
       </c>
       <c r="E93" t="n">
-        <v>2.045442188509829</v>
+        <v>2.030961431544197</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.8545316105186648</v>
+        <v>-0.8670223219363887</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.2769161450819108</v>
+        <v>-0.3153270902575368</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.1441952856446238</v>
       </c>
       <c r="E94" t="n">
-        <v>1.929882302210588</v>
+        <v>1.937372348916949</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.8019129373704061</v>
+        <v>-0.8141160193142211</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.2381898295186484</v>
+        <v>-0.2806640885312734</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.1941815471833375</v>
       </c>
       <c r="E95" t="n">
-        <v>1.8504483858247</v>
+        <v>1.867395164015877</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.5978274152231883</v>
+        <v>-0.6035581039800049</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.1986429669282954</v>
+        <v>-0.238532940820012</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.2522901465393738</v>
       </c>
       <c r="E96" t="n">
-        <v>1.697241159501377</v>
+        <v>1.718816290140735</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.4290648365393245</v>
+        <v>-0.4195073617362361</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1656765410836679</v>
+        <v>-0.1965799189758414</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.3119236560392706</v>
       </c>
       <c r="E97" t="n">
-        <v>1.555667596366415</v>
+        <v>1.585532880065953</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.2684931276454585</v>
+        <v>-0.2497315096772817</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1734834182257567</v>
+        <v>-0.2210955864702894</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.3672830354588332</v>
       </c>
       <c r="E98" t="n">
-        <v>1.411993024028636</v>
+        <v>1.448815436881353</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.1300061061746775</v>
+        <v>-0.09957286376777658</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1630864157703959</v>
+        <v>-0.1959520982967507</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.4128373125881207</v>
       </c>
       <c r="E99" t="n">
-        <v>1.285547019163579</v>
+        <v>1.316730726289207</v>
       </c>
       <c r="F99" t="n">
-        <v>0.02644388695855322</v>
+        <v>0.04549605449682084</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.231352424308923</v>
+        <v>-0.2695385220785491</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.4470829896196486</v>
       </c>
       <c r="E100" t="n">
-        <v>1.237994712890773</v>
+        <v>1.266611655472584</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1129385959120754</v>
+        <v>0.1283099822131622</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.2481999192299185</v>
+        <v>-0.2843828310188178</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.469768996278237</v>
       </c>
       <c r="E101" t="n">
-        <v>1.130570214554075</v>
+        <v>1.149121585597161</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1565984139745183</v>
+        <v>0.174768712465877</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1848688732386628</v>
+        <v>-0.2052905658862027</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.4810845925574151</v>
       </c>
       <c r="E102" t="n">
-        <v>1.099586534016901</v>
+        <v>1.105436946717173</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1540009884207917</v>
+        <v>0.1600923090560628</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2757802276671838</v>
+        <v>-0.2974239805668143</v>
       </c>
     </row>
   </sheetData>
